--- a/src/util/accessories/LightSensor/Lux_Approximation_from_LDR.xlsx
+++ b/src/util/accessories/LightSensor/Lux_Approximation_from_LDR.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <r>
       <rPr>
@@ -20,7 +20,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>LDR Resistance (Ω)</t>
+      <t>LDR Resistance (in Volt)</t>
     </r>
   </si>
   <si>
@@ -73,16 +73,6 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>https://www.allaboutcircuits.com/projects/design-a-luxmeter-using-a-light-dependent-resistor/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>LDR Resistance (Volt)</t>
     </r>
   </si>
   <si>
@@ -144,16 +134,16 @@
     <t>These coefficient calculations come from solving the above line calcuation (log(lux) = m*log(R) + b) for lux.  Giving: lux = A*R^B</t>
   </si>
   <si>
-    <t>A   =   10^(y-intercept)</t>
+    <t>A   =   10 ^ y-intercept</t>
   </si>
   <si>
-    <t>B   = slope</t>
+    <t>B   =   Slope</t>
   </si>
   <si>
     <t>Resulting Illuminance Equation:</t>
   </si>
   <si>
-    <t>lux = A * Resistance^B</t>
+    <t>lux = A * Voltage ^ B</t>
   </si>
   <si>
     <t>lightLDRLevelParts</t>
@@ -6063,47 +6053,47 @@
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
       <c r="D1" t="s" s="33">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s" s="34">
         <v>1</v>
       </c>
       <c r="F1" t="s" s="35">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s" s="36">
         <v>11</v>
       </c>
-      <c r="G1" t="s" s="36">
+      <c r="H1" t="s" s="37">
         <v>12</v>
       </c>
-      <c r="H1" t="s" s="37">
+      <c r="I1" t="s" s="38">
         <v>13</v>
       </c>
-      <c r="I1" t="s" s="38">
+      <c r="J1" t="s" s="36">
         <v>14</v>
-      </c>
-      <c r="J1" t="s" s="36">
-        <v>15</v>
       </c>
       <c r="K1" s="39"/>
       <c r="L1" t="s" s="40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s" s="41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s" s="42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s" s="43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P1" s="44"/>
     </row>
     <row r="2" ht="29.65" customHeight="1">
       <c r="A2" t="s" s="45">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s" s="46">
         <v>17</v>
-      </c>
-      <c r="B2" t="s" s="46">
-        <v>18</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="47">
@@ -6199,7 +6189,7 @@
     <row r="4" ht="14.8" customHeight="1">
       <c r="A4" s="39"/>
       <c r="B4" t="s" s="69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="58">
@@ -6244,7 +6234,7 @@
     </row>
     <row r="5" ht="14.8" customHeight="1">
       <c r="A5" t="s" s="73">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="62">
         <v>16.3271951868277</v>
@@ -6292,7 +6282,7 @@
     </row>
     <row r="6" ht="14.8" customHeight="1">
       <c r="A6" t="s" s="73">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="81">
         <v>3.85547119519305</v>
@@ -6346,7 +6336,7 @@
     </row>
     <row r="7" ht="14.8" customHeight="1">
       <c r="A7" t="s" s="73">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="86">
         <v>1.92170242765178</v>
@@ -6395,7 +6385,7 @@
     <row r="8" ht="15.45" customHeight="1">
       <c r="A8" s="39"/>
       <c r="B8" t="s" s="69">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="87">
@@ -6440,7 +6430,7 @@
     </row>
     <row r="9" ht="14.8" customHeight="1">
       <c r="A9" t="s" s="73">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="62">
         <v>-42.8043502895429</v>
@@ -6488,7 +6478,7 @@
     </row>
     <row r="10" ht="14.8" customHeight="1">
       <c r="A10" t="s" s="73">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="81">
         <v>-7.34902696724256</v>
@@ -6536,7 +6526,7 @@
     </row>
     <row r="11" ht="14.8" customHeight="1">
       <c r="A11" t="s" s="73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="86">
         <v>-2.27030759992747</v>
@@ -6585,7 +6575,7 @@
     <row r="12" ht="14.8" customHeight="1">
       <c r="A12" s="39"/>
       <c r="B12" t="s" s="91">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="87">
@@ -6719,7 +6709,7 @@
     <row r="15" ht="14.8" customHeight="1">
       <c r="A15" s="39"/>
       <c r="B15" t="s" s="69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="39"/>
       <c r="D15" s="87">
@@ -6912,7 +6902,7 @@
     <row r="19" ht="14.8" customHeight="1">
       <c r="A19" s="39"/>
       <c r="B19" t="s" s="69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="39"/>
       <c r="D19" s="109">
@@ -7099,7 +7089,7 @@
     <row r="23" ht="14.8" customHeight="1">
       <c r="A23" s="39"/>
       <c r="B23" t="s" s="69">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="39"/>
       <c r="D23" s="109">
@@ -7145,7 +7135,7 @@
     <row r="24" ht="14.8" customHeight="1">
       <c r="A24" s="111"/>
       <c r="B24" t="s" s="112">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="109">
@@ -7190,7 +7180,7 @@
     </row>
     <row r="25" ht="14.8" customHeight="1">
       <c r="A25" t="s" s="113">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" s="114">
         <v>3</v>
@@ -7238,7 +7228,7 @@
     </row>
     <row r="26" ht="14.8" customHeight="1">
       <c r="A26" t="s" s="69">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="115">
         <v>0</v>
@@ -7286,7 +7276,7 @@
     </row>
     <row r="27" ht="14.8" customHeight="1">
       <c r="A27" t="s" s="69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="115">
         <v>1000</v>
@@ -7334,7 +7324,7 @@
     </row>
     <row r="28" ht="14.8" customHeight="1">
       <c r="A28" t="s" s="69">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="115">
         <v>423</v>
@@ -7382,7 +7372,7 @@
     </row>
     <row r="29" ht="14.8" customHeight="1">
       <c r="A29" t="s" s="112">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="119">
         <v>696</v>
@@ -7421,10 +7411,10 @@
       <c r="E30" s="125"/>
       <c r="F30" s="126"/>
       <c r="G30" t="s" s="40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" t="s" s="127">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="4"/>
@@ -7448,10 +7438,10 @@
     </row>
     <row r="31" ht="14.8" customHeight="1">
       <c r="A31" t="s" s="128">
+        <v>37</v>
+      </c>
+      <c r="B31" t="s" s="128">
         <v>38</v>
-      </c>
-      <c r="B31" t="s" s="128">
-        <v>39</v>
       </c>
       <c r="C31" s="129"/>
       <c r="D31" s="130"/>
@@ -7487,7 +7477,7 @@
     <row r="32" ht="14.8" customHeight="1">
       <c r="A32" s="39"/>
       <c r="B32" t="s" s="73">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="129"/>
       <c r="D32" s="130"/>
@@ -7523,7 +7513,7 @@
     <row r="33" ht="14.8" customHeight="1">
       <c r="A33" s="111"/>
       <c r="B33" t="s" s="132">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="129"/>
       <c r="D33" s="130"/>
@@ -7558,10 +7548,10 @@
     </row>
     <row r="34" ht="14.8" customHeight="1">
       <c r="A34" t="s" s="128">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s" s="128">
         <v>42</v>
-      </c>
-      <c r="B34" t="s" s="128">
-        <v>43</v>
       </c>
       <c r="C34" s="129"/>
       <c r="D34" s="130"/>
@@ -7597,7 +7587,7 @@
     <row r="35" ht="14.8" customHeight="1">
       <c r="A35" s="39"/>
       <c r="B35" t="s" s="73">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="129"/>
       <c r="D35" s="130"/>
@@ -7633,7 +7623,7 @@
     <row r="36" ht="14.8" customHeight="1">
       <c r="A36" s="111"/>
       <c r="B36" t="s" s="132">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="129"/>
       <c r="D36" s="130"/>
@@ -7668,7 +7658,7 @@
     </row>
     <row r="37" ht="14.8" customHeight="1">
       <c r="A37" t="s" s="133">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" s="134"/>
       <c r="C37" s="44"/>
